--- a/Users.xlsx
+++ b/Users.xlsx
@@ -1,33 +1,55 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Blue Bird Dating Application\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FD2C9E5-0DC9-417F-B7F0-BFD9A6131327}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Zip</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,12 +68,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -317,67 +348,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="n">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1">
         <v>1</v>
       </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Username</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Password</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Zip</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Users.xlsx
+++ b/Users.xlsx
@@ -1,55 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Blue Bird Dating Application\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FD2C9E5-0DC9-417F-B7F0-BFD9A6131327}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="156" yWindow="1620" windowWidth="17232" windowHeight="9000" tabRatio="300" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>Username</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Zip</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -68,21 +46,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -348,28 +317,277 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Y2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <cols>
+    <col width="9.33203125" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="9.21875" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="11.33203125" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="16.109375" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="16.44140625" customWidth="1" min="19" max="19"/>
+    <col width="15.5546875" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18.5546875" customWidth="1" min="23" max="23"/>
+    <col width="12.5546875" customWidth="1" min="25" max="26"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1">
+    <row r="1">
+      <c r="A1" t="n">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Username</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Password</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>FirstName</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>LastName</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Gender</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Interested In</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Children</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Ethnic Background</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Religion</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Schooling</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Career</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Sports</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Football</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>Baseball</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Basketball</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>Soccer</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>Other Sports</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>Movies</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>Music</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>Dance</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>Social Media</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>Reading</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>General Bio</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>123dd</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>fff</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>bob</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>joe</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Hinduism</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>college</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>i am amzing</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/Users.xlsx
+++ b/Users.xlsx
@@ -1,33 +1,142 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Blue Bird Dating Application\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B4ECDD-9C72-4567-9BA9-AA2BE92EF84A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="156" yWindow="1620" windowWidth="17232" windowHeight="9000" tabRatio="300" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="156" yWindow="1896" windowWidth="17232" windowHeight="9000" tabRatio="300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Interested In</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Children</t>
+  </si>
+  <si>
+    <t>Ethnic Background</t>
+  </si>
+  <si>
+    <t>Religion</t>
+  </si>
+  <si>
+    <t>Schooling</t>
+  </si>
+  <si>
+    <t>Career</t>
+  </si>
+  <si>
+    <t>Sports</t>
+  </si>
+  <si>
+    <t>Football</t>
+  </si>
+  <si>
+    <t>Baseball</t>
+  </si>
+  <si>
+    <t>Basketball</t>
+  </si>
+  <si>
+    <t>Soccer</t>
+  </si>
+  <si>
+    <t>Other Sports</t>
+  </si>
+  <si>
+    <t>Movies</t>
+  </si>
+  <si>
+    <t>Music</t>
+  </si>
+  <si>
+    <t>Dance</t>
+  </si>
+  <si>
+    <t>Social Media</t>
+  </si>
+  <si>
+    <t>Reading</t>
+  </si>
+  <si>
+    <t>General Bio</t>
+  </si>
+  <si>
+    <t>lebron</t>
+  </si>
+  <si>
+    <t>james</t>
+  </si>
+  <si>
+    <t>Lebron</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
+    <t>African-American</t>
+  </si>
+  <si>
+    <t>Christian</t>
+  </si>
+  <si>
+    <t>High School</t>
+  </si>
+  <si>
+    <t>NBA Player</t>
+  </si>
+  <si>
+    <t>I'm a 4 time NBA MVP, I have 3 Rings, and I am the GOAT.</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,12 +155,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -317,277 +435,181 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="Y2" sqref="Y2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col width="9.33203125" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="9.21875" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="11.33203125" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="16.109375" bestFit="1" customWidth="1" min="10" max="10"/>
-    <col width="16.44140625" customWidth="1" min="19" max="19"/>
-    <col width="15.5546875" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="18.5546875" customWidth="1" min="23" max="23"/>
-    <col width="12.5546875" customWidth="1" min="25" max="26"/>
+    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.109375" customWidth="1"/>
+    <col min="11" max="11" width="15.33203125" customWidth="1"/>
+    <col min="12" max="12" width="17.77734375" customWidth="1"/>
+    <col min="13" max="14" width="13.77734375" customWidth="1"/>
+    <col min="19" max="19" width="16.44140625" customWidth="1"/>
+    <col min="20" max="20" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18.5546875" customWidth="1"/>
+    <col min="25" max="25" width="132.6640625" customWidth="1"/>
+    <col min="26" max="26" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="n">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1">
         <v>1</v>
       </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Username</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Password</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>FirstName</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>LastName</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Gender</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Interested In</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Children</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Ethnic Background</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Religion</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Schooling</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Career</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Sports</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Football</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Baseball</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Basketball</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Soccer</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Other Sports</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Movies</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Music</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Dance</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Social Media</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Reading</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>General Bio</t>
-        </is>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>123dd</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>fff</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>bob</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>joe</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Asian</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>Hinduism</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>college</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>i am amzing</t>
-        </is>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>33</v>
+      </c>
+      <c r="I2">
+        <v>2</v>
+      </c>
+      <c r="J2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2">
+        <v>2</v>
+      </c>
+      <c r="O2">
+        <v>2</v>
+      </c>
+      <c r="P2">
+        <v>2</v>
+      </c>
+      <c r="Q2">
+        <v>2</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="U2">
+        <v>2</v>
+      </c>
+      <c r="V2">
+        <v>2</v>
+      </c>
+      <c r="W2">
+        <v>2</v>
+      </c>
+      <c r="X2">
+        <v>2</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Users.xlsx
+++ b/Users.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Blue Bird Dating Application\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B4ECDD-9C72-4567-9BA9-AA2BE92EF84A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5C3C9AC-4EAF-4D4B-A431-E6EF45950833}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="156" yWindow="1896" windowWidth="17232" windowHeight="9000" tabRatio="300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,9 +58,6 @@
     <t>Career</t>
   </si>
   <si>
-    <t>Sports</t>
-  </si>
-  <si>
     <t>Football</t>
   </si>
   <si>
@@ -119,6 +116,9 @@
   </si>
   <si>
     <t>I'm a 4 time NBA MVP, I have 3 Rings, and I am the GOAT.</t>
+  </si>
+  <si>
+    <t>Traveling</t>
   </si>
 </sst>
 </file>
@@ -439,7 +439,7 @@
   <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="Y2" sqref="Y2"/>
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -499,40 +499,40 @@
         <v>11</v>
       </c>
       <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>21</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>22</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.3">
@@ -540,22 +540,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>25</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" t="s">
-        <v>27</v>
-      </c>
       <c r="F2">
         <v>2</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2">
         <v>33</v>
@@ -564,16 +564,16 @@
         <v>2</v>
       </c>
       <c r="J2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" t="s">
         <v>28</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>29</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>30</v>
-      </c>
-      <c r="M2" t="s">
-        <v>31</v>
       </c>
       <c r="N2">
         <v>2</v>
@@ -609,7 +609,7 @@
         <v>2</v>
       </c>
       <c r="Y2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/Users.xlsx
+++ b/Users.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Blue Bird Dating Application\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5C3C9AC-4EAF-4D4B-A431-E6EF45950833}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B7F60A1-88EE-4124-B962-7D56FA3E0454}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="156" yWindow="1896" windowWidth="17232" windowHeight="9000" tabRatio="300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2100" yWindow="3360" windowWidth="17232" windowHeight="9000" tabRatio="300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="52">
   <si>
     <t>Username</t>
   </si>
@@ -58,6 +58,9 @@
     <t>Career</t>
   </si>
   <si>
+    <t>Traveling</t>
+  </si>
+  <si>
     <t>Football</t>
   </si>
   <si>
@@ -103,22 +106,76 @@
     <t>James</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
     <t>African-American</t>
   </si>
   <si>
-    <t>Christian</t>
-  </si>
-  <si>
     <t>High School</t>
   </si>
   <si>
-    <t>NBA Player</t>
-  </si>
-  <si>
-    <t>I'm a 4 time NBA MVP, I have 3 Rings, and I am the GOAT.</t>
-  </si>
-  <si>
-    <t>Traveling</t>
+    <t>Professional Basketball Player</t>
+  </si>
+  <si>
+    <t>I'm a professional basketball player for the Los Angeles Lakers. I'm often regarded as the greatest basketball player of all time.</t>
+  </si>
+  <si>
+    <t>ariana</t>
+  </si>
+  <si>
+    <t>grande</t>
+  </si>
+  <si>
+    <t>Ariana</t>
+  </si>
+  <si>
+    <t>Grande</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>Caucasian</t>
+  </si>
+  <si>
+    <t>Singer/Actress</t>
+  </si>
+  <si>
+    <t>I'm a singer, songwriter, and actress. A multi-platinum, Grammy Award-winning recording artist.</t>
+  </si>
+  <si>
+    <t>conor</t>
+  </si>
+  <si>
+    <t>mcgregor</t>
+  </si>
+  <si>
+    <t>Conor</t>
+  </si>
+  <si>
+    <t>McGregor</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>Agnosticism</t>
+  </si>
+  <si>
+    <t>Professional MMA Fighter</t>
+  </si>
+  <si>
+    <t>Christianity</t>
+  </si>
+  <si>
+    <t>I'm a professional mixed martial artist and boxer. I am the first UFC two-division champion in history.</t>
   </si>
 </sst>
 </file>
@@ -436,10 +493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y2"/>
+  <dimension ref="A1:Y4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="Y4" sqref="Y4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -450,7 +507,8 @@
     <col min="10" max="10" width="23.109375" customWidth="1"/>
     <col min="11" max="11" width="15.33203125" customWidth="1"/>
     <col min="12" max="12" width="17.77734375" customWidth="1"/>
-    <col min="13" max="14" width="13.77734375" customWidth="1"/>
+    <col min="13" max="13" width="37.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.77734375" customWidth="1"/>
     <col min="19" max="19" width="16.44140625" customWidth="1"/>
     <col min="20" max="20" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="18.5546875" customWidth="1"/>
@@ -499,40 +557,40 @@
         <v>11</v>
       </c>
       <c r="N1" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="O1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Q1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="R1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="S1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="T1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="U1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="V1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="W1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="X1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.3">
@@ -540,76 +598,230 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2">
-        <v>2</v>
-      </c>
-      <c r="G2">
+        <v>27</v>
+      </c>
+      <c r="F2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>28</v>
+      </c>
+      <c r="R2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T2" t="s">
+        <v>28</v>
+      </c>
+      <c r="U2" t="s">
+        <v>28</v>
+      </c>
+      <c r="V2" t="s">
+        <v>28</v>
+      </c>
+      <c r="W2" t="s">
+        <v>28</v>
+      </c>
+      <c r="X2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A3">
         <v>1</v>
       </c>
-      <c r="H2">
-        <v>33</v>
-      </c>
-      <c r="I2">
-        <v>2</v>
-      </c>
-      <c r="J2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M2" t="s">
-        <v>30</v>
-      </c>
-      <c r="N2">
-        <v>2</v>
-      </c>
-      <c r="O2">
-        <v>2</v>
-      </c>
-      <c r="P2">
-        <v>2</v>
-      </c>
-      <c r="Q2">
-        <v>2</v>
-      </c>
-      <c r="R2">
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" t="s">
+        <v>41</v>
+      </c>
+      <c r="N3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U3" t="s">
+        <v>28</v>
+      </c>
+      <c r="V3" t="s">
+        <v>28</v>
+      </c>
+      <c r="W3" t="s">
+        <v>28</v>
+      </c>
+      <c r="X3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A4">
         <v>1</v>
       </c>
-      <c r="S2">
-        <v>1</v>
-      </c>
-      <c r="T2">
-        <v>1</v>
-      </c>
-      <c r="U2">
-        <v>2</v>
-      </c>
-      <c r="V2">
-        <v>2</v>
-      </c>
-      <c r="W2">
-        <v>2</v>
-      </c>
-      <c r="X2">
-        <v>2</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>31</v>
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" t="s">
+        <v>48</v>
+      </c>
+      <c r="L4" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" t="s">
+        <v>49</v>
+      </c>
+      <c r="N4" t="s">
+        <v>28</v>
+      </c>
+      <c r="O4" t="s">
+        <v>29</v>
+      </c>
+      <c r="P4" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>29</v>
+      </c>
+      <c r="R4" t="s">
+        <v>28</v>
+      </c>
+      <c r="S4" t="s">
+        <v>28</v>
+      </c>
+      <c r="T4" t="s">
+        <v>29</v>
+      </c>
+      <c r="U4" t="s">
+        <v>28</v>
+      </c>
+      <c r="V4" t="s">
+        <v>28</v>
+      </c>
+      <c r="W4" t="s">
+        <v>28</v>
+      </c>
+      <c r="X4" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Users.xlsx
+++ b/Users.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Blue Bird Dating Application\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B7F60A1-88EE-4124-B962-7D56FA3E0454}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD55FB3E-BF28-48BA-82EE-21C79CE185A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2100" yWindow="3360" windowWidth="17232" windowHeight="9000" tabRatio="300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -118,6 +118,9 @@
     <t>African-American</t>
   </si>
   <si>
+    <t>Christianity</t>
+  </si>
+  <si>
     <t>High School</t>
   </si>
   <si>
@@ -170,9 +173,6 @@
   </si>
   <si>
     <t>Professional MMA Fighter</t>
-  </si>
-  <si>
-    <t>Christianity</t>
   </si>
   <si>
     <t>I'm a professional mixed martial artist and boxer. I am the first UFC two-division champion in history.</t>
@@ -495,9 +495,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="Y4" sqref="Y4"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -625,13 +623,13 @@
         <v>31</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="L2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N2" t="s">
         <v>28</v>
@@ -667,7 +665,7 @@
         <v>28</v>
       </c>
       <c r="Y2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
@@ -675,16 +673,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F3" t="s">
         <v>29</v>
@@ -693,22 +691,22 @@
         <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I3" t="s">
         <v>29</v>
       </c>
       <c r="J3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K3" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="L3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N3" t="s">
         <v>28</v>
@@ -744,7 +742,7 @@
         <v>29</v>
       </c>
       <c r="Y3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
@@ -752,16 +750,16 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F4" t="s">
         <v>28</v>
@@ -770,22 +768,22 @@
         <v>29</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
         <v>28</v>
       </c>
       <c r="J4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N4" t="s">
         <v>28</v>

--- a/Users.xlsx
+++ b/Users.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\Python-Class-Project---Blue-Bird-master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anthony\Documents\BCS\Python-Class-Project---Blue-Bird-master\Python-Class-Project---Blue-Raven-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2739A03-705E-4135-8BEF-8C03AAA6CB74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0523F0D-8380-407F-BF9B-85B2721D6E8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1208" uniqueCount="317">
   <si>
     <t>Username</t>
   </si>
@@ -269,16 +269,724 @@
   </si>
   <si>
     <t>I'm known for co-founding and leading Facebook as its chairman and chief executive officer.</t>
+  </si>
+  <si>
+    <t>Alfonso</t>
+  </si>
+  <si>
+    <t>alfonso</t>
+  </si>
+  <si>
+    <t>adams</t>
+  </si>
+  <si>
+    <t>Adams</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>Hispanic</t>
+  </si>
+  <si>
+    <t>Trumpet Player</t>
+  </si>
+  <si>
+    <t>bob</t>
+  </si>
+  <si>
+    <t>robert</t>
+  </si>
+  <si>
+    <t>Bob</t>
+  </si>
+  <si>
+    <t>Robert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proffesor </t>
+  </si>
+  <si>
+    <t>I'm known for playing the trumpet</t>
+  </si>
+  <si>
+    <t>I'm known for teaching college students</t>
+  </si>
+  <si>
+    <t>Cary</t>
+  </si>
+  <si>
+    <t>Cats</t>
+  </si>
+  <si>
+    <t>cary</t>
+  </si>
+  <si>
+    <t>cats</t>
+  </si>
+  <si>
+    <t>Dancer</t>
+  </si>
+  <si>
+    <t>I am a proffesional dancer</t>
+  </si>
+  <si>
+    <t>david</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Love</t>
+  </si>
+  <si>
+    <t>Singer/Actor</t>
+  </si>
+  <si>
+    <t>I am a proffesional singer</t>
+  </si>
+  <si>
+    <t>emily</t>
+  </si>
+  <si>
+    <t>hurts</t>
+  </si>
+  <si>
+    <t>Emily</t>
+  </si>
+  <si>
+    <t>Hurts</t>
+  </si>
+  <si>
+    <t>Receptionist</t>
+  </si>
+  <si>
+    <t>I work in a corporate office</t>
+  </si>
+  <si>
+    <t>frank</t>
+  </si>
+  <si>
+    <t>pebble</t>
+  </si>
+  <si>
+    <t>Frank</t>
+  </si>
+  <si>
+    <t>Pebble</t>
+  </si>
+  <si>
+    <t>I own my own construction company</t>
+  </si>
+  <si>
+    <t>gary</t>
+  </si>
+  <si>
+    <t>holds</t>
+  </si>
+  <si>
+    <t>Gary</t>
+  </si>
+  <si>
+    <t>Holds</t>
+  </si>
+  <si>
+    <t>I am a proffesional singer and actor</t>
+  </si>
+  <si>
+    <t>harry</t>
+  </si>
+  <si>
+    <t>sole</t>
+  </si>
+  <si>
+    <t>Harry</t>
+  </si>
+  <si>
+    <t>Sole</t>
+  </si>
+  <si>
+    <t>I teach high school</t>
+  </si>
+  <si>
+    <t>jack</t>
+  </si>
+  <si>
+    <t>nickle</t>
+  </si>
+  <si>
+    <t>Jack</t>
+  </si>
+  <si>
+    <t>Nickle</t>
+  </si>
+  <si>
+    <t>Bartender</t>
+  </si>
+  <si>
+    <t>I am a bartender</t>
+  </si>
+  <si>
+    <t>leroy</t>
+  </si>
+  <si>
+    <t>hops</t>
+  </si>
+  <si>
+    <t>Leroy</t>
+  </si>
+  <si>
+    <t>Hops</t>
+  </si>
+  <si>
+    <t>Programmer</t>
+  </si>
+  <si>
+    <t>I program at a bank</t>
+  </si>
+  <si>
+    <t>patty</t>
+  </si>
+  <si>
+    <t>bones</t>
+  </si>
+  <si>
+    <t>Patty</t>
+  </si>
+  <si>
+    <t>Bones</t>
+  </si>
+  <si>
+    <t>I teach children how to dance</t>
+  </si>
+  <si>
+    <t>rex</t>
+  </si>
+  <si>
+    <t>rogers</t>
+  </si>
+  <si>
+    <t>Rex</t>
+  </si>
+  <si>
+    <t>Rogers</t>
+  </si>
+  <si>
+    <t>Accountant</t>
+  </si>
+  <si>
+    <t>I am a head accountant</t>
+  </si>
+  <si>
+    <t>linda</t>
+  </si>
+  <si>
+    <t>mally</t>
+  </si>
+  <si>
+    <t>Linda</t>
+  </si>
+  <si>
+    <t>Mally</t>
+  </si>
+  <si>
+    <t>Painter</t>
+  </si>
+  <si>
+    <t>I paint for my career</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>marks</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Marks</t>
+  </si>
+  <si>
+    <t>Foreman</t>
+  </si>
+  <si>
+    <t>I manage a construction company</t>
+  </si>
+  <si>
+    <t>ned</t>
+  </si>
+  <si>
+    <t>steven</t>
+  </si>
+  <si>
+    <t>Ned</t>
+  </si>
+  <si>
+    <t>Steven</t>
+  </si>
+  <si>
+    <t>Window Washer</t>
+  </si>
+  <si>
+    <t>I wash windows on buildings</t>
+  </si>
+  <si>
+    <t>otto</t>
+  </si>
+  <si>
+    <t>vans</t>
+  </si>
+  <si>
+    <t>Otto</t>
+  </si>
+  <si>
+    <t>Vans</t>
+  </si>
+  <si>
+    <t>I make video games</t>
+  </si>
+  <si>
+    <t>peter</t>
+  </si>
+  <si>
+    <t>peters</t>
+  </si>
+  <si>
+    <t>Peter</t>
+  </si>
+  <si>
+    <t>Peters</t>
+  </si>
+  <si>
+    <t>I made my own tech buisness</t>
+  </si>
+  <si>
+    <t>rodger</t>
+  </si>
+  <si>
+    <t>reeves</t>
+  </si>
+  <si>
+    <t>Rodger</t>
+  </si>
+  <si>
+    <t>Reeves</t>
+  </si>
+  <si>
+    <t>I made my own mechanic buisness</t>
+  </si>
+  <si>
+    <t>sally</t>
+  </si>
+  <si>
+    <t>singer</t>
+  </si>
+  <si>
+    <t>Sally</t>
+  </si>
+  <si>
+    <t>Singer</t>
+  </si>
+  <si>
+    <t>I have my own fashion line</t>
+  </si>
+  <si>
+    <t>tom</t>
+  </si>
+  <si>
+    <t>segura</t>
+  </si>
+  <si>
+    <t>Tom</t>
+  </si>
+  <si>
+    <t>Segura</t>
+  </si>
+  <si>
+    <t>Comedian</t>
+  </si>
+  <si>
+    <t>I am a comedian</t>
+  </si>
+  <si>
+    <t>vanessa</t>
+  </si>
+  <si>
+    <t>tall</t>
+  </si>
+  <si>
+    <t>Vanessa</t>
+  </si>
+  <si>
+    <t>Tall</t>
+  </si>
+  <si>
+    <t>I restore old paintings</t>
+  </si>
+  <si>
+    <t>zed</t>
+  </si>
+  <si>
+    <t>zim</t>
+  </si>
+  <si>
+    <t>Zed</t>
+  </si>
+  <si>
+    <t>Zim</t>
+  </si>
+  <si>
+    <t>Mechanic</t>
+  </si>
+  <si>
+    <t>I am a mechanic</t>
+  </si>
+  <si>
+    <t>adam</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>Adam</t>
+  </si>
+  <si>
+    <t>Family</t>
+  </si>
+  <si>
+    <t>Engineer</t>
+  </si>
+  <si>
+    <t>I make engines for ships</t>
+  </si>
+  <si>
+    <t>boros</t>
+  </si>
+  <si>
+    <t>grand</t>
+  </si>
+  <si>
+    <t>Boros</t>
+  </si>
+  <si>
+    <t>Grand</t>
+  </si>
+  <si>
+    <t>I make planes</t>
+  </si>
+  <si>
+    <t>cam</t>
+  </si>
+  <si>
+    <t>rizo</t>
+  </si>
+  <si>
+    <t>Cam</t>
+  </si>
+  <si>
+    <t>Rizo</t>
+  </si>
+  <si>
+    <t>I work on oil rigs</t>
+  </si>
+  <si>
+    <t>jason</t>
+  </si>
+  <si>
+    <t>raheim</t>
+  </si>
+  <si>
+    <t>Jason</t>
+  </si>
+  <si>
+    <t>Raheim</t>
+  </si>
+  <si>
+    <t>Prison Guard</t>
+  </si>
+  <si>
+    <t>I work at a prison</t>
+  </si>
+  <si>
+    <t>omar</t>
+  </si>
+  <si>
+    <t>raza</t>
+  </si>
+  <si>
+    <t>Omar</t>
+  </si>
+  <si>
+    <t>Raza</t>
+  </si>
+  <si>
+    <t>Lawyer</t>
+  </si>
+  <si>
+    <t>I am a tax lawyer</t>
+  </si>
+  <si>
+    <t>george</t>
+  </si>
+  <si>
+    <t>jungle</t>
+  </si>
+  <si>
+    <t>George</t>
+  </si>
+  <si>
+    <t>Jungle</t>
+  </si>
+  <si>
+    <t>Explorer</t>
+  </si>
+  <si>
+    <t>I travel the world</t>
+  </si>
+  <si>
+    <t>sandra</t>
+  </si>
+  <si>
+    <t>riv</t>
+  </si>
+  <si>
+    <t>Sandra</t>
+  </si>
+  <si>
+    <t>Riv</t>
+  </si>
+  <si>
+    <t>Police Officer</t>
+  </si>
+  <si>
+    <t>I work as a police officer in the city</t>
+  </si>
+  <si>
+    <t>oscar</t>
+  </si>
+  <si>
+    <t>jam</t>
+  </si>
+  <si>
+    <t>Oscar</t>
+  </si>
+  <si>
+    <t>Jam</t>
+  </si>
+  <si>
+    <t>Librarian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I sell and rent book.  </t>
+  </si>
+  <si>
+    <t>jessica</t>
+  </si>
+  <si>
+    <t>hits</t>
+  </si>
+  <si>
+    <t>Jessica</t>
+  </si>
+  <si>
+    <t>Hits</t>
+  </si>
+  <si>
+    <t>I have my own tutoring buisness</t>
+  </si>
+  <si>
+    <t>tyler</t>
+  </si>
+  <si>
+    <t>gordan</t>
+  </si>
+  <si>
+    <t>Tyler</t>
+  </si>
+  <si>
+    <t>Gordan</t>
+  </si>
+  <si>
+    <t>Driver</t>
+  </si>
+  <si>
+    <t>I drive trucks</t>
+  </si>
+  <si>
+    <t>bobert</t>
+  </si>
+  <si>
+    <t>Bobert</t>
+  </si>
+  <si>
+    <t>I deliver your food</t>
+  </si>
+  <si>
+    <t>vinny</t>
+  </si>
+  <si>
+    <t>samuel</t>
+  </si>
+  <si>
+    <t>Vinny</t>
+  </si>
+  <si>
+    <t>Samuel</t>
+  </si>
+  <si>
+    <t>I am a engineer</t>
+  </si>
+  <si>
+    <t>nick</t>
+  </si>
+  <si>
+    <t>offerman</t>
+  </si>
+  <si>
+    <t>Nick</t>
+  </si>
+  <si>
+    <t>Offerman</t>
+  </si>
+  <si>
+    <t>I am a comedian on tv</t>
+  </si>
+  <si>
+    <t>rob</t>
+  </si>
+  <si>
+    <t>lowe</t>
+  </si>
+  <si>
+    <t>Rob</t>
+  </si>
+  <si>
+    <t>Lowe</t>
+  </si>
+  <si>
+    <t>bella</t>
+  </si>
+  <si>
+    <t>swan</t>
+  </si>
+  <si>
+    <t>Bella</t>
+  </si>
+  <si>
+    <t>Swan</t>
+  </si>
+  <si>
+    <t>I dance for my career</t>
+  </si>
+  <si>
+    <t>rolly</t>
+  </si>
+  <si>
+    <t>polly</t>
+  </si>
+  <si>
+    <t>Rolly</t>
+  </si>
+  <si>
+    <t>Polly</t>
+  </si>
+  <si>
+    <t>I debug applications</t>
+  </si>
+  <si>
+    <t>jennifer</t>
+  </si>
+  <si>
+    <t>rivas</t>
+  </si>
+  <si>
+    <t>Jennifer</t>
+  </si>
+  <si>
+    <t>Rivas</t>
+  </si>
+  <si>
+    <t>I explore jungles</t>
+  </si>
+  <si>
+    <t>bags</t>
+  </si>
+  <si>
+    <t>Bags</t>
+  </si>
+  <si>
+    <t>I lawyer things</t>
+  </si>
+  <si>
+    <t>jeremy</t>
+  </si>
+  <si>
+    <t>roles</t>
+  </si>
+  <si>
+    <t>Jeremy</t>
+  </si>
+  <si>
+    <t>Roles</t>
+  </si>
+  <si>
+    <t>I do peoples taxes</t>
+  </si>
+  <si>
+    <t>victor</t>
+  </si>
+  <si>
+    <t>stone</t>
+  </si>
+  <si>
+    <t>Victor</t>
+  </si>
+  <si>
+    <t>Stone</t>
+  </si>
+  <si>
+    <t>I am a criminal defense lawyer</t>
+  </si>
+  <si>
+    <t>henry</t>
+  </si>
+  <si>
+    <t>Henry</t>
+  </si>
+  <si>
+    <t>Styles</t>
+  </si>
+  <si>
+    <t>Desighner</t>
+  </si>
+  <si>
+    <t>I decorate homes</t>
+  </si>
+  <si>
+    <t>styles</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -304,7 +1012,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -594,29 +1303,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:JW8"/>
+  <dimension ref="A1:JW51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="IH1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="IY6" sqref="IV2:IY6"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="5" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.28515625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="17.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="37.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="19" max="19" width="16.42578125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="18.5703125" style="1" customWidth="1"/>
-    <col min="25" max="25" width="132.7109375" style="1" customWidth="1"/>
-    <col min="26" max="26" width="13.42578125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="9.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.1796875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.26953125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="17.7265625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="37.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.7265625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="16.453125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="15.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18.54296875" style="1" customWidth="1"/>
+    <col min="25" max="25" width="132.7265625" style="1" customWidth="1"/>
+    <col min="26" max="26" width="13.453125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:283" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:283" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>1</v>
       </c>
@@ -692,69 +1401,69 @@
       <c r="Y1" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="Z1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="3"/>
-      <c r="AB1" s="3"/>
-      <c r="AC1" s="3"/>
-      <c r="AD1" s="3"/>
-      <c r="AE1" s="3"/>
-      <c r="AF1" s="3"/>
-      <c r="AG1" s="3"/>
-      <c r="AH1" s="3"/>
-      <c r="AI1" s="3"/>
-      <c r="AJ1" s="3"/>
-      <c r="AK1" s="3"/>
-      <c r="AL1" s="3"/>
-      <c r="AM1" s="3"/>
-      <c r="AN1" s="3"/>
-      <c r="AO1" s="3"/>
-      <c r="AP1" s="3"/>
-      <c r="AQ1" s="3"/>
-      <c r="AR1" s="3"/>
-      <c r="AS1" s="3"/>
-      <c r="AT1" s="3"/>
-      <c r="AU1" s="3"/>
-      <c r="AV1" s="3"/>
-      <c r="IP1" s="4" t="s">
+      <c r="AA1" s="4"/>
+      <c r="AB1" s="4"/>
+      <c r="AC1" s="4"/>
+      <c r="AD1" s="4"/>
+      <c r="AE1" s="4"/>
+      <c r="AF1" s="4"/>
+      <c r="AG1" s="4"/>
+      <c r="AH1" s="4"/>
+      <c r="AI1" s="4"/>
+      <c r="AJ1" s="4"/>
+      <c r="AK1" s="4"/>
+      <c r="AL1" s="4"/>
+      <c r="AM1" s="4"/>
+      <c r="AN1" s="4"/>
+      <c r="AO1" s="4"/>
+      <c r="AP1" s="4"/>
+      <c r="AQ1" s="4"/>
+      <c r="AR1" s="4"/>
+      <c r="AS1" s="4"/>
+      <c r="AT1" s="4"/>
+      <c r="AU1" s="4"/>
+      <c r="AV1" s="4"/>
+      <c r="IP1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="IQ1" s="3"/>
-      <c r="IR1" s="3"/>
-      <c r="IS1" s="3"/>
-      <c r="IT1" s="3"/>
-      <c r="IU1" s="3"/>
-      <c r="IV1" s="3"/>
-      <c r="IW1" s="3"/>
-      <c r="IX1" s="3"/>
-      <c r="IY1" s="3"/>
-      <c r="IZ1" s="3"/>
-      <c r="JA1" s="3"/>
-      <c r="JB1" s="3"/>
-      <c r="JC1" s="3"/>
-      <c r="JD1" s="3"/>
-      <c r="JE1" s="3"/>
-      <c r="JF1" s="3"/>
-      <c r="JG1" s="3"/>
-      <c r="JH1" s="3"/>
-      <c r="JI1" s="3"/>
-      <c r="JJ1" s="3"/>
-      <c r="JK1" s="3"/>
-      <c r="JL1" s="3"/>
-      <c r="JM1" s="3"/>
-      <c r="JN1" s="3"/>
-      <c r="JO1" s="3"/>
-      <c r="JP1" s="3"/>
-      <c r="JQ1" s="3"/>
-      <c r="JR1" s="3"/>
-      <c r="JS1" s="3"/>
-      <c r="JT1" s="3"/>
-      <c r="JU1" s="3"/>
-      <c r="JV1" s="3"/>
-      <c r="JW1" s="3"/>
+      <c r="IQ1" s="4"/>
+      <c r="IR1" s="4"/>
+      <c r="IS1" s="4"/>
+      <c r="IT1" s="4"/>
+      <c r="IU1" s="4"/>
+      <c r="IV1" s="4"/>
+      <c r="IW1" s="4"/>
+      <c r="IX1" s="4"/>
+      <c r="IY1" s="4"/>
+      <c r="IZ1" s="4"/>
+      <c r="JA1" s="4"/>
+      <c r="JB1" s="4"/>
+      <c r="JC1" s="4"/>
+      <c r="JD1" s="4"/>
+      <c r="JE1" s="4"/>
+      <c r="JF1" s="4"/>
+      <c r="JG1" s="4"/>
+      <c r="JH1" s="4"/>
+      <c r="JI1" s="4"/>
+      <c r="JJ1" s="4"/>
+      <c r="JK1" s="4"/>
+      <c r="JL1" s="4"/>
+      <c r="JM1" s="4"/>
+      <c r="JN1" s="4"/>
+      <c r="JO1" s="4"/>
+      <c r="JP1" s="4"/>
+      <c r="JQ1" s="4"/>
+      <c r="JR1" s="4"/>
+      <c r="JS1" s="4"/>
+      <c r="JT1" s="4"/>
+      <c r="JU1" s="4"/>
+      <c r="JV1" s="4"/>
+      <c r="JW1" s="4"/>
     </row>
-    <row r="2" spans="1:283" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:283" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -831,7 +1540,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:283" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:283" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -935,7 +1644,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:283" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:283" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1040,7 +1749,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:283" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:283" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1083,8 +1792,8 @@
       <c r="N5" t="s">
         <v>30</v>
       </c>
-      <c r="O5" t="s">
-        <v>31</v>
+      <c r="O5" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="P5" t="s">
         <v>31</v>
@@ -1117,7 +1826,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:283" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:283" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1139,8 +1848,8 @@
       <c r="G6" t="s">
         <v>31</v>
       </c>
-      <c r="H6">
-        <v>32</v>
+      <c r="H6" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="I6">
         <v>2</v>
@@ -1194,7 +1903,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:283" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:283" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1216,8 +1925,8 @@
       <c r="G7" t="s">
         <v>31</v>
       </c>
-      <c r="H7">
-        <v>33</v>
+      <c r="H7" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="I7">
         <v>2</v>
@@ -1271,7 +1980,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:283" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:283" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1293,8 +2002,8 @@
       <c r="G8" t="s">
         <v>31</v>
       </c>
-      <c r="H8">
-        <v>33</v>
+      <c r="H8" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="I8">
         <v>2</v>
@@ -1346,6 +2055,3317 @@
       </c>
       <c r="Y8" t="s">
         <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:283" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="U9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="V9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="W9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="X9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y9" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:283" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="V10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="W10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="X10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y10" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:283" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" t="s">
+        <v>101</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="V11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="W11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="X11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y11" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:283" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="U12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="V12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="W12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="X12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y12" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:283" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>110</v>
+      </c>
+      <c r="C13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="T13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="U13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="V13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="W13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="X13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y13" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:283" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>116</v>
+      </c>
+      <c r="C14" t="s">
+        <v>117</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="V14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="W14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="X14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y14" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:283" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>121</v>
+      </c>
+      <c r="C15" t="s">
+        <v>122</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="S15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="T15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="V15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="W15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="X15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y15" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:283" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>126</v>
+      </c>
+      <c r="C16" t="s">
+        <v>127</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="U16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="V16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="W16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="X16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y16" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>131</v>
+      </c>
+      <c r="C17" t="s">
+        <v>132</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="T17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="U17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="V17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="W17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="X17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y17" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>137</v>
+      </c>
+      <c r="C18" t="s">
+        <v>138</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="T18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="U18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="V18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="W18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="X18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y18" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>143</v>
+      </c>
+      <c r="C19" t="s">
+        <v>144</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="V19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="W19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="X19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y19" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>148</v>
+      </c>
+      <c r="C20" t="s">
+        <v>149</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="S20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="T20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="V20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="W20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="X20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y20" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>154</v>
+      </c>
+      <c r="C21" t="s">
+        <v>155</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="U21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="V21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="W21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="X21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y21" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>160</v>
+      </c>
+      <c r="C22" t="s">
+        <v>161</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="T22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="U22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="V22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="W22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="X22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y22" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
+        <v>166</v>
+      </c>
+      <c r="C23" t="s">
+        <v>167</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R23" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S23" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T23" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="V23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="W23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="X23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y23" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
+        <v>172</v>
+      </c>
+      <c r="C24" t="s">
+        <v>173</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R24" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="S24" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="T24" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U24" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="V24" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="W24" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="X24" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y24" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25" t="s">
+        <v>177</v>
+      </c>
+      <c r="C25" t="s">
+        <v>178</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R25" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S25" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="U25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="V25" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="W25" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="X25" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y25" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26" t="s">
+        <v>182</v>
+      </c>
+      <c r="C26" t="s">
+        <v>183</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="T26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="U26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="V26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="W26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="X26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y26" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27" t="s">
+        <v>187</v>
+      </c>
+      <c r="C27" t="s">
+        <v>188</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R27" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="T27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="U27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="V27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="W27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="X27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y27" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28" t="s">
+        <v>192</v>
+      </c>
+      <c r="C28" t="s">
+        <v>193</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q28" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R28" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S28" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T28" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="V28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="W28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="X28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y28" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29" t="s">
+        <v>198</v>
+      </c>
+      <c r="C29" t="s">
+        <v>199</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q29" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="S29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="T29" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="V29" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="W29" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="X29" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y29" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30" t="s">
+        <v>203</v>
+      </c>
+      <c r="C30" t="s">
+        <v>204</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O30" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P30" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q30" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R30" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S30" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T30" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="U30" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="V30" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="W30" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="X30" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y30" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31" t="s">
+        <v>209</v>
+      </c>
+      <c r="C31" t="s">
+        <v>210</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O31" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P31" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R31" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="T31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="U31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="V31" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="W31" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="X31" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y31" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32" t="s">
+        <v>215</v>
+      </c>
+      <c r="C32" t="s">
+        <v>216</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O32" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q32" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R32" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S32" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T32" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="V32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="W32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="X32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y32" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33" t="s">
+        <v>220</v>
+      </c>
+      <c r="C33" t="s">
+        <v>221</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O33" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P33" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q33" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R33" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="S33" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="T33" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U33" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="V33" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="W33" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="X33" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y33" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34" t="s">
+        <v>225</v>
+      </c>
+      <c r="C34" t="s">
+        <v>226</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="N34" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O34" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P34" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q34" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R34" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S34" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T34" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="U34" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="V34" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="W34" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="X34" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y34" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35" t="s">
+        <v>231</v>
+      </c>
+      <c r="C35" t="s">
+        <v>232</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="N35" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O35" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P35" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q35" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R35" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S35" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="T35" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="U35" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="V35" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="W35" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="X35" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y35" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36" t="s">
+        <v>237</v>
+      </c>
+      <c r="C36" t="s">
+        <v>238</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="N36" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O36" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P36" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q36" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R36" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S36" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="T36" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="U36" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="V36" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="W36" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="X36" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y36" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37" t="s">
+        <v>243</v>
+      </c>
+      <c r="C37" t="s">
+        <v>244</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="N37" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O37" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P37" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q37" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R37" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S37" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T37" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U37" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="V37" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="W37" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="X37" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y37" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38" t="s">
+        <v>249</v>
+      </c>
+      <c r="C38" t="s">
+        <v>250</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q38" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R38" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="S38" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="T38" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U38" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="V38" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="W38" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="X38" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y38" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39" t="s">
+        <v>255</v>
+      </c>
+      <c r="C39" t="s">
+        <v>256</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="N39" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O39" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P39" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q39" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R39" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S39" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T39" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="U39" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="V39" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="W39" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="X39" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y39" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40" t="s">
+        <v>260</v>
+      </c>
+      <c r="C40" t="s">
+        <v>261</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="N40" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O40" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P40" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q40" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R40" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S40" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="T40" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="U40" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="V40" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="W40" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="X40" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y40" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41" t="s">
+        <v>266</v>
+      </c>
+      <c r="C41" t="s">
+        <v>92</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="N41" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O41" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P41" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q41" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R41" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S41" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T41" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U41" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="V41" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="W41" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="X41" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y41" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42" t="s">
+        <v>269</v>
+      </c>
+      <c r="C42" t="s">
+        <v>270</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N42" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O42" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P42" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q42" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R42" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="S42" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="T42" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U42" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="V42" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="W42" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="X42" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y42" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43" t="s">
+        <v>274</v>
+      </c>
+      <c r="C43" t="s">
+        <v>275</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="N43" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O43" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P43" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q43" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R43" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S43" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T43" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="U43" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="V43" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="W43" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="X43" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y43" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44" t="s">
+        <v>279</v>
+      </c>
+      <c r="C44" t="s">
+        <v>280</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="N44" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O44" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P44" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q44" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R44" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S44" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="T44" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="U44" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="V44" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="W44" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="X44" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y44" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>1</v>
+      </c>
+      <c r="B45" t="s">
+        <v>283</v>
+      </c>
+      <c r="C45" t="s">
+        <v>284</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="N45" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O45" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P45" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q45" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R45" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S45" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="T45" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="U45" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="V45" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="W45" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="X45" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y45" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="B46" t="s">
+        <v>288</v>
+      </c>
+      <c r="C46" t="s">
+        <v>289</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="N46" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O46" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P46" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q46" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R46" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S46" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T46" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U46" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="V46" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="W46" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="X46" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y46" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="B47" t="s">
+        <v>293</v>
+      </c>
+      <c r="C47" t="s">
+        <v>294</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="N47" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O47" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P47" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q47" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R47" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="S47" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="T47" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U47" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="V47" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="W47" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="X47" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y47" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>1</v>
+      </c>
+      <c r="B48" t="s">
+        <v>167</v>
+      </c>
+      <c r="C48" t="s">
+        <v>298</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="N48" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O48" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P48" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q48" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R48" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S48" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T48" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="U48" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="V48" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="W48" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="X48" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y48" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>1</v>
+      </c>
+      <c r="B49" t="s">
+        <v>301</v>
+      </c>
+      <c r="C49" t="s">
+        <v>302</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="N49" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O49" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P49" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q49" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R49" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S49" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="T49" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="U49" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="V49" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="W49" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="X49" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y49" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>1</v>
+      </c>
+      <c r="B50" t="s">
+        <v>306</v>
+      </c>
+      <c r="C50" t="s">
+        <v>307</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="L50" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="N50" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O50" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P50" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q50" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R50" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S50" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T50" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U50" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="V50" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="W50" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="X50" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y50" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>1</v>
+      </c>
+      <c r="B51" t="s">
+        <v>311</v>
+      </c>
+      <c r="C51" t="s">
+        <v>316</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="N51" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O51" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P51" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q51" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R51" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="S51" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="T51" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U51" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="V51" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="W51" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="X51" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y51" s="1" t="s">
+        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -1353,6 +5373,7 @@
     <mergeCell ref="Z1:AV1"/>
     <mergeCell ref="IP1:JW1"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>